--- a/iselUssSyncV2/OutputWSLorientation/20220524_1321_D50L474W30Q16.0U0.35H58.6G2_S2_DATA.xlsx
+++ b/iselUssSyncV2/OutputWSLorientation/20220524_1321_D50L474W30Q16.0U0.35H58.6G2_S2_DATA.xlsx
@@ -344,10 +344,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="N2" s="0">
-        <v>0.023699999999999999</v>
+        <v>0.013550436903969579</v>
       </c>
       <c r="O2" s="0">
-        <v>0.51141909327660451</v>
+        <v>0.29240304451181276</v>
       </c>
       <c r="P2" s="0">
         <v>235.1642166666667</v>
@@ -356,10 +356,10 @@
         <v>2.3069609655000005</v>
       </c>
       <c r="R2" s="0">
-        <v>1.6331450042360498</v>
+        <v>2.8564050646260455</v>
       </c>
       <c r="S2" s="0">
-        <v>0.38985017099317515</v>
+        <v>1.4301833104501904</v>
       </c>
       <c r="T2" s="0">
         <v>0.034708746150571748</v>
@@ -383,16 +383,16 @@
         <v>160000</v>
       </c>
       <c r="AA2" s="0">
-        <v>1.4125879572947948</v>
+        <v>0.80764489395064942</v>
       </c>
       <c r="AB2" s="0">
-        <v>5.9175579162190157</v>
+        <v>1.6130526406253614</v>
       </c>
       <c r="AC2" s="0">
-        <v>3.7623851763559069</v>
+        <v>1.8811925881779534</v>
       </c>
       <c r="AD2" s="0">
-        <v>3.3393660589076477</v>
+        <v>1.6696830294538239</v>
       </c>
       <c r="AE2" s="0">
         <v>20</v>
@@ -401,7 +401,7 @@
         <v>33</v>
       </c>
       <c r="AG2" s="0">
-        <v>9.6799430925749235</v>
+        <v>3.4942452288033148</v>
       </c>
     </row>
   </sheetData>
